--- a/all_experiments_extended.xlsx
+++ b/all_experiments_extended.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aparna Balagopalan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\ETUDES\4-University of Toronto\2_WINTER\1-Learning discrete latent structure\5_Project\Relaxed_SeqGAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E17A3D-3449-4C29-B975-A2782A130480}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342F975F-CBCE-4357-94A8-67605D855FEA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C3008BEB-33B4-4213-A2AE-3FB9F81976BF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{C3008BEB-33B4-4213-A2AE-3FB9F81976BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Toy data without space" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Full MLE</t>
   </si>
@@ -120,6 +120,9 @@
       </rPr>
       <t>Refer Notes)</t>
     </r>
+  </si>
+  <si>
+    <t>Gradient estimator variance</t>
   </si>
 </sst>
 </file>
@@ -207,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -229,30 +232,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -275,13 +263,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -291,6 +272,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -338,9 +326,82 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -358,6 +419,31 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -421,86 +507,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -544,27 +550,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2339F868-0CEF-4905-80E7-63B8F881357E}" name="Table2" displayName="Table2" ref="A3:A8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2339F868-0CEF-4905-80E7-63B8F881357E}" name="Table2" displayName="Table2" ref="A3:A8" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A3:A8" xr:uid="{CE858829-8529-40DA-98E3-DE5AD8D91A38}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{04B214CA-3665-4B16-B284-F2F454594E11}" name="NO PRE-TRAINING" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{04B214CA-3665-4B16-B284-F2F454594E11}" name="NO PRE-TRAINING" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{75C08C9E-FF67-41DE-8332-80FB63309BE1}" name="Table6" displayName="Table6" ref="A10:A15" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{75C08C9E-FF67-41DE-8332-80FB63309BE1}" name="Table6" displayName="Table6" ref="A10:A15" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A10:A15" xr:uid="{60D86A44-FBE1-4B69-9652-494536F45965}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C7322591-2234-47DF-A636-29CBC3D409D9}" name="WITH PRE-TRAINING" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C7322591-2234-47DF-A636-29CBC3D409D9}" name="WITH PRE-TRAINING" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD0BEA0D-F5AC-44EC-B12C-52C813433CC1}" name="Table1" displayName="Table1" ref="A17:A21" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD0BEA0D-F5AC-44EC-B12C-52C813433CC1}" name="Table1" displayName="Table1" ref="A17:A21" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A17:A21" xr:uid="{968B0C68-3718-4A4B-A302-7D00AFC001F5}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A6FDB6DF-0397-4047-B09D-32D0D4B30FA7}" name="CPHI ARCHITECTURE (Refer Notes)"/>
@@ -574,20 +580,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FCC03EA9-5FA0-4B69-93D7-5F07854CF2C6}" name="Table3" displayName="Table3" ref="A10:A15" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FCC03EA9-5FA0-4B69-93D7-5F07854CF2C6}" name="Table3" displayName="Table3" ref="A10:A15" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A10:A15" xr:uid="{CD11132B-BA49-4DBA-A94D-18A70F498B13}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{96B75B50-B8A4-4C32-9DB7-BF81EC9109B8}" name="WITH PRE-TRAINING" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{96B75B50-B8A4-4C32-9DB7-BF81EC9109B8}" name="WITH PRE-TRAINING" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{31E39D7C-B382-4E2D-AB19-5492832B9945}" name="Table4" displayName="Table4" ref="A3:A8" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{31E39D7C-B382-4E2D-AB19-5492832B9945}" name="Table4" displayName="Table4" ref="A3:A8" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
   <autoFilter ref="A3:A8" xr:uid="{7CE6859D-D46C-49D6-86B0-73843D969FC3}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{2C83953D-AB35-4C8E-ADCC-C2FDE84B8647}" name="NO PRE-TRAINING" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{2C83953D-AB35-4C8E-ADCC-C2FDE84B8647}" name="NO PRE-TRAINING" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -890,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D392F51-F672-44D3-B6C8-87C11ED079B8}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,9 +912,10 @@
     <col min="7" max="7" width="14.109375" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
         <v>15</v>
       </c>
@@ -923,8 +930,11 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="10"/>
       <c r="C2" s="9"/>
       <c r="D2" s="1" t="s">
@@ -945,63 +955,64 @@
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1032,10 +1043,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
@@ -1049,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BA01FA-6FDC-4E7E-8075-043D9440DC5E}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,9 +1077,10 @@
     <col min="7" max="7" width="14.5546875" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" customWidth="1"/>
     <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
@@ -1082,8 +1095,11 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="10"/>
       <c r="C2" s="9"/>
       <c r="D2" s="1" t="s">
@@ -1104,63 +1120,64 @@
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1191,10 +1208,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
